--- a/Project Outputs for Elevate_pcb/Elevate_pcb.xlsx
+++ b/Project Outputs for Elevate_pcb/Elevate_pcb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="205">
   <si>
     <t>Description</t>
   </si>
@@ -37,18 +37,462 @@
     <t>Supplier Subtotal 1</t>
   </si>
   <si>
-    <t>2 Pad Touch Jumper, Sensor</t>
-  </si>
-  <si>
-    <t>JP7, MS1</t>
-  </si>
-  <si>
-    <t>2 PAD Touch JMP, MS5611</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>LED_Edison</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>VLMG1500-GS08CT-ND</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>JST-XH-4</t>
+  </si>
+  <si>
+    <t>455-2262-1-ND</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>EDISON_CONNECTOR_FULLMOUNTING_HOLES</t>
+  </si>
+  <si>
+    <t>H11908CT-ND</t>
+  </si>
+  <si>
+    <t>MG1</t>
+  </si>
+  <si>
+    <t>HMC5883L</t>
+  </si>
+  <si>
+    <t>342-1082-1-ND</t>
+  </si>
+  <si>
+    <t>SW1UI2</t>
+  </si>
+  <si>
+    <t>Tl1015AF160QG</t>
+  </si>
+  <si>
+    <t>EG4344DKR-ND</t>
+  </si>
+  <si>
+    <t>U1001</t>
+  </si>
+  <si>
+    <t>EDISON_CONNECTOR_FULLSOCKET</t>
+  </si>
+  <si>
+    <t>H11630CT-ND</t>
+  </si>
+  <si>
+    <t>10K 0.125W 1% 0805 (2012 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R48, R1001</t>
+  </si>
+  <si>
+    <t>CMP-1013-00623-1</t>
+  </si>
+  <si>
+    <t>311-10.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>10K5 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R112</t>
+  </si>
+  <si>
+    <t>CMP-1012-00625-1</t>
+  </si>
+  <si>
+    <t>311-10.5KHRCT-ND</t>
+  </si>
+  <si>
+    <t>11K 0.125W 1% 0805 (2012 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R2000</t>
+  </si>
+  <si>
+    <t>CMP-1013-00627-1</t>
+  </si>
+  <si>
+    <t>311-11.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>165R 0.125W 1% 0805 (2012 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R1000</t>
+  </si>
+  <si>
+    <t>CMP-1013-00420-1</t>
+  </si>
+  <si>
+    <t>311-165CRCT-ND</t>
+  </si>
+  <si>
+    <t>16Mbit SPI Flash Memory</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>Flash 16Mb 75MHZ 8SOIC</t>
+  </si>
+  <si>
+    <t>M25P16-VMN6P-ND</t>
+  </si>
+  <si>
+    <t>220R 0.125W 1% 0805 (2012 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>CMP-1013-00433-1</t>
+  </si>
+  <si>
+    <t>311-220CRCT-ND</t>
+  </si>
+  <si>
+    <t>26K1 0.125W 1% 0805 (2012 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R2001</t>
+  </si>
+  <si>
+    <t>CMP-1013-00668-1</t>
+  </si>
+  <si>
+    <t>311-26.1KCRCT-ND</t>
+  </si>
+  <si>
+    <t>2K2 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R511, R512</t>
+  </si>
+  <si>
+    <t>CMP-1012-00546-1</t>
+  </si>
+  <si>
+    <t>311-2.20KHRCT-ND</t>
+  </si>
+  <si>
+    <t>3.3V 250mA LDO Regulator</t>
+  </si>
+  <si>
+    <t>U2, U3</t>
+  </si>
+  <si>
+    <t>LP2985-3.3</t>
+  </si>
+  <si>
+    <t>LP2992AIM5-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>47K 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R111</t>
+  </si>
+  <si>
+    <t>CMP-1012-00699-1</t>
+  </si>
+  <si>
+    <t>311-47.0KHRCT-ND</t>
+  </si>
+  <si>
+    <t>4K7 0.1W 5% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R501, R502</t>
+  </si>
+  <si>
+    <t>CMP-1012-00090-1</t>
+  </si>
+  <si>
+    <t>P4.7KGCT-ND</t>
+  </si>
+  <si>
+    <t>576R 0.1W 1% 0603 (1608 Metric)  SMD</t>
+  </si>
+  <si>
+    <t>R88</t>
+  </si>
+  <si>
+    <t>CMP-1012-00483-1</t>
+  </si>
+  <si>
+    <t>311-576HRCT-ND</t>
+  </si>
+  <si>
+    <t>Blue 603 LED</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>LED 603 Bl</t>
+  </si>
+  <si>
+    <t>350-2037-1-ND</t>
+  </si>
+  <si>
+    <t>Buck Step Down Regulator with 3 to 17 V Input and 0.9 to 6 V Output, -40 to 85 degC, 16-Pin QFN (RGT), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>U45</t>
+  </si>
+  <si>
+    <t>CMP-0323-00115-2</t>
+  </si>
+  <si>
+    <t>296-37682-6-ND</t>
+  </si>
+  <si>
+    <t>CAP 100nF 16V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C48, C52, C56, C57, C901, C1001</t>
+  </si>
+  <si>
+    <t>CMP-1036-04401-1</t>
+  </si>
+  <si>
+    <t>311-1142-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 220nF 16V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C2010</t>
+  </si>
+  <si>
+    <t>CMP-1036-04533-1</t>
+  </si>
+  <si>
+    <t>1276-1284-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 220nF 6.3V ±10% 0603 (1608 Metric) Thickness 1mm SMD</t>
+  </si>
+  <si>
+    <t>C501</t>
+  </si>
+  <si>
+    <t>CMP-1035-02636-1</t>
+  </si>
+  <si>
+    <t>399-9046-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 22uF 6.3V ±20% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>CMP-1036-04939-1</t>
+  </si>
+  <si>
+    <t>311-1464-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 33nF 50V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>CMP-1036-04168-1</t>
+  </si>
+  <si>
+    <t>311-1131-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 4.7uF 6.3V ±10% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
+  </si>
+  <si>
+    <t>C502</t>
+  </si>
+  <si>
+    <t>CMP-1034-02136-1</t>
+  </si>
+  <si>
+    <t>445-5947-1-ND</t>
+  </si>
+  <si>
+    <t>CAP 820pF 25V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>CMP-1036-02893-1</t>
+  </si>
+  <si>
+    <t>490-5523-6-ND</t>
+  </si>
+  <si>
+    <t>Capacitor SMD</t>
+  </si>
+  <si>
+    <t>C1, C12, C13, C28, C30, C34, C38, C39, C1122, C1123, C1124</t>
+  </si>
+  <si>
+    <t>Cap603</t>
+  </si>
+  <si>
+    <t>399-5089-1-ND</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>445-1415-1-ND</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>445-5175-1-ND</t>
+  </si>
+  <si>
+    <t>C2, C5, C7, C8, C9, C11, C36</t>
+  </si>
+  <si>
+    <t>399-1091-1-ND</t>
+  </si>
+  <si>
+    <t>C29, C33</t>
+  </si>
+  <si>
+    <t>399-1052-1-ND</t>
+  </si>
+  <si>
+    <t>C3, C4, C6</t>
+  </si>
+  <si>
+    <t>Cap805</t>
+  </si>
+  <si>
+    <t>490-5523-1-ND</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>311-1446-1-ND</t>
+  </si>
+  <si>
+    <t>Dual Diode Command Cathode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BAT54C</t>
+  </si>
+  <si>
+    <t>497-3786-1-ND</t>
+  </si>
+  <si>
+    <t>Dual In / Single Out Autoswitching Power Mux, 2.8 to 5.5 V, -40 to 85 degC, 8-pin SON (DRB), Green (RoHS &amp; no Sb/Br)</t>
+  </si>
+  <si>
+    <t>U100</t>
+  </si>
+  <si>
+    <t>TPS2115ADRBR</t>
+  </si>
+  <si>
+    <t>296-23394-1-ND</t>
+  </si>
+  <si>
+    <t>Ferrite Bead 300mA</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>FerriteBead_300mA</t>
+  </si>
+  <si>
+    <t>732-1586-1-ND</t>
+  </si>
+  <si>
+    <t>Green 603 LED</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LED 603 Gr</t>
+  </si>
+  <si>
+    <t>754-1116-1-ND</t>
+  </si>
+  <si>
+    <t>Header, 3-Pin, 0.1"</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Hdr 3 Pin 0.1</t>
+  </si>
+  <si>
+    <t>MTLW-103-23-S-S-260-ND</t>
+  </si>
+  <si>
+    <t>Invensense MPU-3/6000,  3-axis Gyros &amp; Accel on 6000</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MPU-3/6000</t>
+  </si>
+  <si>
+    <t>1428-1005-1-ND</t>
+  </si>
+  <si>
+    <t>JST-SH 4-pin Side Entry Socket</t>
+  </si>
+  <si>
+    <t>CONN2, CONN11</t>
+  </si>
+  <si>
+    <t>455-1804-1-ND</t>
+  </si>
+  <si>
+    <t>Power MOSFET, 200 mA, 50 V, N-Channel, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Q9, Q70, Q71</t>
+  </si>
+  <si>
+    <t>CMP-1058-00765-1</t>
+  </si>
+  <si>
+    <t>BSS138LT1GOSCT-ND</t>
+  </si>
+  <si>
     <t>Power Multilayer Inductor WE-MAPI, L=1.0µH</t>
   </si>
   <si>
@@ -58,28 +502,109 @@
     <t>WE-MAPI 2508 ,74438322010</t>
   </si>
   <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
     <t>732-4768-6-ND</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>EDISON_CONNECTOR_FULLMOUNTING_HOLES</t>
-  </si>
-  <si>
-    <t>H11631CT-ND</t>
-  </si>
-  <si>
-    <t>U1001</t>
-  </si>
-  <si>
-    <t>EDISON_CONNECTOR_FULLSOCKET</t>
-  </si>
-  <si>
-    <t>H11630CT-ND</t>
+    <t>Resistor SMD</t>
+  </si>
+  <si>
+    <t>R1, R9</t>
+  </si>
+  <si>
+    <t>Res603</t>
+  </si>
+  <si>
+    <t>P330HCT-ND</t>
+  </si>
+  <si>
+    <t>R11, R13</t>
+  </si>
+  <si>
+    <t>P22GCT-ND</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>P1.0MGCT-ND</t>
+  </si>
+  <si>
+    <t>R2, R10, R16, R17, R20, R21, R22</t>
+  </si>
+  <si>
+    <t>P10.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>P15.0KHCT-ND</t>
+  </si>
+  <si>
+    <t>R6, R14</t>
+  </si>
+  <si>
+    <t>P1.50KHCT-ND</t>
+  </si>
+  <si>
+    <t>Small Signal MOSFET, 60 V, 380 mA, Single, N-Channel, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
+  </si>
+  <si>
+    <t>Q74</t>
+  </si>
+  <si>
+    <t>CMP-1058-00766-1</t>
+  </si>
+  <si>
+    <t>2N7002KT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>STM32 ARM-based 32-bit MCU with 128 Kbytes Flash, 48-pin LQFP, Industrial Temperature</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>STM32F103CBT6</t>
+  </si>
+  <si>
+    <t>497-6288-ND</t>
+  </si>
+  <si>
+    <t>Surface Mount Quartz Crystal, Digikey 535-9720-1-ND</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>XTAL ACT530SMX-4</t>
+  </si>
+  <si>
+    <t>535-9720-1-ND</t>
+  </si>
+  <si>
+    <t>Testpoint</t>
+  </si>
+  <si>
+    <t>MSCL, MSDA, SCL, SDA</t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>5000K-ND</t>
+  </si>
+  <si>
+    <t>USB Type-B SMT Socket</t>
+  </si>
+  <si>
+    <t>CONN4, Debug, Power</t>
+  </si>
+  <si>
+    <t>USB_SMT_B</t>
+  </si>
+  <si>
+    <t>670-1190-1-ND</t>
   </si>
   <si>
     <t>USB UART Asynchronous Serial Data Transfer Chip, QFN-32, Tape and Reel</t>
@@ -94,453 +619,6 @@
     <t>768-1008-1-ND</t>
   </si>
   <si>
-    <t>MAGNETO1</t>
-  </si>
-  <si>
-    <t>HMC5883L</t>
-  </si>
-  <si>
-    <t>342-1082-1-ND</t>
-  </si>
-  <si>
-    <t>H23</t>
-  </si>
-  <si>
-    <t>JST-XH-4</t>
-  </si>
-  <si>
-    <t>455-2262-1-ND</t>
-  </si>
-  <si>
-    <t>Testpoint</t>
-  </si>
-  <si>
-    <t>MSCL, MSDA, SCL, SDA</t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>5000K-ND</t>
-  </si>
-  <si>
-    <t>SW1UI2</t>
-  </si>
-  <si>
-    <t>Tl1015AF160QG</t>
-  </si>
-  <si>
-    <t>EG4344DKR-ND</t>
-  </si>
-  <si>
-    <t>Dual In / Single Out Autoswitching Power Mux, 2.8 to 5.5 V, -40 to 85 degC, 8-pin SON (DRB), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>U100</t>
-  </si>
-  <si>
-    <t>TPS2115ADRBR</t>
-  </si>
-  <si>
-    <t>296-23394-1-ND</t>
-  </si>
-  <si>
-    <t>DS3</t>
-  </si>
-  <si>
-    <t>LED_Edison</t>
-  </si>
-  <si>
-    <t>VLMG1500-GS08CT-ND</t>
-  </si>
-  <si>
-    <t>Buck Step Down Regulator with 3 to 17 V Input and 0.9 to 6 V Output, -40 to 85 degC, 16-Pin QFN (RGT), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>U45</t>
-  </si>
-  <si>
-    <t>CMP-0323-00115-2</t>
-  </si>
-  <si>
-    <t>296-37682-6-ND</t>
-  </si>
-  <si>
-    <t>Small Signal MOSFET, 60 V, 380 mA, Single, N-Channel, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q74</t>
-  </si>
-  <si>
-    <t>CMP-1058-00766-1</t>
-  </si>
-  <si>
-    <t>2N7002KT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>Power MOSFET, 200 mA, 50 V, N-Channel, 3-Pin SOT-23, Pb-Free, Tape and Reel</t>
-  </si>
-  <si>
-    <t>Q9, Q70, Q71</t>
-  </si>
-  <si>
-    <t>CMP-1058-00765-1</t>
-  </si>
-  <si>
-    <t>BSS138LT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>10K5 0.05W 1% 0201 (0603 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R112</t>
-  </si>
-  <si>
-    <t>CMP-1010-00531-1</t>
-  </si>
-  <si>
-    <t>311-10.5KMCT-ND</t>
-  </si>
-  <si>
-    <t>165R 0.05W 1% 0201 (0603 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R48, R1000, R1001</t>
-  </si>
-  <si>
-    <t>CMP-1010-00326-1</t>
-  </si>
-  <si>
-    <t>311-165HRCT-ND</t>
-  </si>
-  <si>
-    <t>220R 0.05W 5% 0201 (0603 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>CMP-1010-00058-1</t>
-  </si>
-  <si>
-    <t>311-220NDKR-ND</t>
-  </si>
-  <si>
-    <t>47K 0.05W 1% 0201 (0603 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R111</t>
-  </si>
-  <si>
-    <t>CMP-1010-00605-1</t>
-  </si>
-  <si>
-    <t>311-47KMCT-ND</t>
-  </si>
-  <si>
-    <t>CAP 1.5nF 10V ±20% 0201 (0603 Metric) Thickness 0.33mm SMD</t>
-  </si>
-  <si>
-    <t>C48, C52, C56, C57, C901, C1001</t>
-  </si>
-  <si>
-    <t>CMP-1033-00601-1</t>
-  </si>
-  <si>
-    <t>1276-1115-1-ND</t>
-  </si>
-  <si>
-    <t>CAP 22nF 6.3V ±20% 0201 (0603 Metric) Thickness 0.33mm SMD</t>
-  </si>
-  <si>
-    <t>C54</t>
-  </si>
-  <si>
-    <t>CMP-1033-00648-1</t>
-  </si>
-  <si>
-    <t>1276-2868-6-ND</t>
-  </si>
-  <si>
-    <t>CAP 33nF 6.3V ±10% 0201 (0603 Metric) Thickness 0.33mm SMD</t>
-  </si>
-  <si>
-    <t>C53</t>
-  </si>
-  <si>
-    <t>CMP-1033-00650-1</t>
-  </si>
-  <si>
-    <t>490-3170-6-ND</t>
-  </si>
-  <si>
-    <t>11K 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R2000</t>
-  </si>
-  <si>
-    <t>CMP-1011-00627-1</t>
-  </si>
-  <si>
-    <t>P11.0KLCT-ND</t>
-  </si>
-  <si>
-    <t>26K1 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R2001</t>
-  </si>
-  <si>
-    <t>CMP-1011-00668-1</t>
-  </si>
-  <si>
-    <t>311-26.1KLRCT-ND</t>
-  </si>
-  <si>
-    <t>576R 0.063W 1% 0402 (1005 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R88</t>
-  </si>
-  <si>
-    <t>CMP-1011-00483-1</t>
-  </si>
-  <si>
-    <t>P576LCT-ND</t>
-  </si>
-  <si>
-    <t>CAP 220nF 10V ±10% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>C2010</t>
-  </si>
-  <si>
-    <t>CMP-1034-02086-1</t>
-  </si>
-  <si>
-    <t>445-5938-1-ND</t>
-  </si>
-  <si>
-    <t>CAP 4.7uF 6.3V ±10% 0402 (1005 Metric) Thickness 0.6mm SMD</t>
-  </si>
-  <si>
-    <t>C502</t>
-  </si>
-  <si>
-    <t>CMP-1034-02136-1</t>
-  </si>
-  <si>
-    <t>445-5947-1-ND</t>
-  </si>
-  <si>
-    <t>2K2 0.1W 1% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R511, R512</t>
-  </si>
-  <si>
-    <t>CMP-1012-00546-1</t>
-  </si>
-  <si>
-    <t>311-2.20KHRCT-ND</t>
-  </si>
-  <si>
-    <t>4K7 0.1W 5% 0603 (1608 Metric)  SMD</t>
-  </si>
-  <si>
-    <t>R501, R502</t>
-  </si>
-  <si>
-    <t>CMP-1012-00090-1</t>
-  </si>
-  <si>
-    <t>P4.7KGCT-ND</t>
-  </si>
-  <si>
-    <t>CAP 220nF 6.3V ±10% 0603 (1608 Metric) Thickness 1mm SMD</t>
-  </si>
-  <si>
-    <t>C501</t>
-  </si>
-  <si>
-    <t>CMP-1035-02636-1</t>
-  </si>
-  <si>
-    <t>399-9046-1-ND</t>
-  </si>
-  <si>
-    <t>CAP 820pF 25V ±10% 0805 (2012 Metric) Thickness 1.45mm SMD</t>
-  </si>
-  <si>
-    <t>C55</t>
-  </si>
-  <si>
-    <t>CMP-1036-02893-1</t>
-  </si>
-  <si>
-    <t>490-5523-6-ND</t>
-  </si>
-  <si>
-    <t>Dual Diode Command Cathode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>BAT54C</t>
-  </si>
-  <si>
-    <t>497-3786-1-ND</t>
-  </si>
-  <si>
-    <t>Blue 603 LED</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>LED 603 Bl</t>
-  </si>
-  <si>
-    <t>350-2037-1-ND</t>
-  </si>
-  <si>
-    <t>Capacitor SMD</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>Cap603</t>
-  </si>
-  <si>
-    <t>445-1415-1-ND</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>445-5175-1-ND</t>
-  </si>
-  <si>
-    <t>C2, C5, C7, C8, C9, C11, C36</t>
-  </si>
-  <si>
-    <t>399-1091-1-ND</t>
-  </si>
-  <si>
-    <t>C29, C33</t>
-  </si>
-  <si>
-    <t>399-1052-1-ND</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>445-5172-1-ND</t>
-  </si>
-  <si>
-    <t>C3, C4, C6</t>
-  </si>
-  <si>
-    <t>Cap805</t>
-  </si>
-  <si>
-    <t>490-3886-1-ND</t>
-  </si>
-  <si>
-    <t>16Mbit SPI Flash Memory</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>Flash 16Mb 75MHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>M25P16-VMN6P-ND</t>
-  </si>
-  <si>
-    <t>Green 603 LED</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>LED 603 Gr</t>
-  </si>
-  <si>
-    <t>754-1116-1-ND</t>
-  </si>
-  <si>
-    <t>Invensense MPU-3/6000,  3-axis Gyros &amp; Accel on 6000</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>MPU-3/6000</t>
-  </si>
-  <si>
-    <t>1428-1005-1-ND</t>
-  </si>
-  <si>
-    <t>Resistor SMD</t>
-  </si>
-  <si>
-    <t>R1, R9</t>
-  </si>
-  <si>
-    <t>Res603</t>
-  </si>
-  <si>
-    <t>P330HCT-ND</t>
-  </si>
-  <si>
-    <t>R11, R13</t>
-  </si>
-  <si>
-    <t>P22GCT-ND</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>P1.0MGCT-ND</t>
-  </si>
-  <si>
-    <t>R2, R10, R16, R17, R20, R21, R22</t>
-  </si>
-  <si>
-    <t>P10.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>P15.0KHCT-ND</t>
-  </si>
-  <si>
-    <t>R6, R14</t>
-  </si>
-  <si>
-    <t>P1.50KHCT-ND</t>
-  </si>
-  <si>
-    <t>STM32 ARM-based 32-bit MCU with 128 Kbytes Flash, 48-pin LQFP, Industrial Temperature</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>STM32F103CBT6</t>
-  </si>
-  <si>
-    <t>497-6288-ND</t>
-  </si>
-  <si>
     <t>XOR Gate SN74LVC1G86DCKR</t>
   </si>
   <si>
@@ -551,81 +629,6 @@
   </si>
   <si>
     <t>296-9854-1-ND</t>
-  </si>
-  <si>
-    <t>Header, 3-Pin, 0.1"</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 4</t>
-  </si>
-  <si>
-    <t>Hdr 3 Pin 0.1</t>
-  </si>
-  <si>
-    <t>MTLW-103-23-S-S-260-ND</t>
-  </si>
-  <si>
-    <t>JST-SH 4-pin Side Entry Socket</t>
-  </si>
-  <si>
-    <t>CONN2, CONN11</t>
-  </si>
-  <si>
-    <t>455-1804-1-ND</t>
-  </si>
-  <si>
-    <t>Surface Mount Quartz Crystal, Digikey 535-9720-1-ND</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>XTAL ACT530SMX-4</t>
-  </si>
-  <si>
-    <t>535-9720-1-ND</t>
-  </si>
-  <si>
-    <t>Ferrite Bead 300mA</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>FerriteBead_300mA</t>
-  </si>
-  <si>
-    <t>732-1586-1-ND</t>
-  </si>
-  <si>
-    <t>3.3V 250mA LDO Regulator</t>
-  </si>
-  <si>
-    <t>U2, U3</t>
-  </si>
-  <si>
-    <t>LP2985-3.3</t>
-  </si>
-  <si>
-    <t>LP2992AIM5-3.3/NOPBCT-ND</t>
-  </si>
-  <si>
-    <t>C1, C12, C13, C28, C30, C34, C38, C39, C1122, C1123, C1124</t>
-  </si>
-  <si>
-    <t>399-5089-1-ND</t>
-  </si>
-  <si>
-    <t>USB Type-B SMT Socket</t>
-  </si>
-  <si>
-    <t>CONN4, Debug, Power</t>
-  </si>
-  <si>
-    <t>USB_SMT_B</t>
-  </si>
-  <si>
-    <t>670-1190-1-ND</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,19 +1045,21 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1064,156 +1071,156 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="3">
-        <v>7.12</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="3">
-        <v>5.12</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="3">
-        <v>5.76</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="3">
-        <v>19.52</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="3">
-        <v>13.2</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="3">
-        <v>3.28</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="3">
-        <v>5.04</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
@@ -1225,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="3">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,194 +1255,194 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="3">
-        <v>8.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3">
-        <v>2.08</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3">
-        <v>12.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="3">
-        <v>2.94</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="3">
-        <v>0.4</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="3">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="3">
         <v>0.4</v>
@@ -1443,114 +1450,114 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" s="3">
-        <v>0.76800000000000002</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="3">
-        <v>4.5199999999999996</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="3">
-        <v>0.4</v>
+        <v>1.992</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="3">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3">
         <v>0.4</v>
@@ -1558,68 +1565,68 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="3">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="3">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G27" s="3">
         <v>1.6</v>
@@ -1627,68 +1634,68 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" s="3">
-        <v>0.8</v>
+        <v>1.804</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G30" s="3">
         <v>0.4</v>
@@ -1696,390 +1703,390 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G31" s="3">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G32" s="3">
-        <v>1.96</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G33" s="3">
-        <v>3.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G34" s="3">
-        <v>0.4</v>
+        <v>3.6960000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G35" s="3">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D36" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G36" s="3">
-        <v>0.39200000000000002</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G37" s="3">
-        <v>0.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="3">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G39" s="3">
-        <v>2.052</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="G40" s="3">
-        <v>3.8</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="G41" s="3">
-        <v>0.8</v>
+        <v>42.88</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G42" s="3">
-        <v>42.88</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G43" s="3">
-        <v>0.8</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G44" s="3">
-        <v>0.8</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G45" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D46" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G46" s="3">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G47" s="3">
         <v>0.4</v>
@@ -2087,137 +2094,137 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D48" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G48" s="3">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G49" s="3">
-        <v>27.04</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="G50" s="3">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="3">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="G51" s="3">
-        <v>15.04</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G52" s="3">
-        <v>4.6399999999999997</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G53" s="3">
         <v>4.16</v>
@@ -2225,94 +2232,94 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="G54" s="3">
-        <v>0.64</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="3">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="G55" s="3">
-        <v>9.84</v>
+        <v>10.236000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="D56" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G56" s="3">
-        <v>1.804</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G57" s="3">
-        <v>10.236000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for Elevate_pcb/Elevate_pcb.xlsx
+++ b/Project Outputs for Elevate_pcb/Elevate_pcb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
   <si>
     <t>Description</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
+    <t>2 Pad Touch Jumper, Sensor</t>
+  </si>
+  <si>
+    <t>JP7, MS1</t>
+  </si>
+  <si>
+    <t>2 PAD Touch JMP, MS5611</t>
   </si>
   <si>
     <t/>
@@ -999,16 +1008,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,44 +1054,42 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.08</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3">
-        <v>3.28</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1094,18 +1101,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <v>5.48</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1117,18 +1124,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3">
-        <v>13.2</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -1140,18 +1147,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3">
-        <v>3.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1163,79 +1170,79 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>5.76</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="3">
-        <v>0.8</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0.4</v>
@@ -1243,22 +1250,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="3">
         <v>0.4</v>
@@ -1266,68 +1273,68 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G12" s="3">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="3">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="3">
         <v>0.4</v>
@@ -1335,646 +1342,646 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G15" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="3">
-        <v>9.84</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="3">
-        <v>0.4</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="G18" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G19" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G20" s="3">
-        <v>3.04</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G21" s="3">
-        <v>12.64</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G22" s="3">
-        <v>1.992</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G23" s="3">
-        <v>0.48</v>
+        <v>1.992</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="G24" s="3">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G25" s="3">
-        <v>1.04</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G26" s="3">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G27" s="3">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G28" s="3">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="3">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G29" s="3">
-        <v>1.804</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3">
-        <v>0.4</v>
+        <v>1.804</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" s="3">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D32" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="3">
-        <v>0.39200000000000002</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D33" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="3">
-        <v>0.8</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G34" s="3">
-        <v>3.6960000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G35" s="3">
-        <v>0.4</v>
+        <v>3.6960000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G36" s="3">
-        <v>1.96</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="G37" s="3">
-        <v>8.6</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G38" s="3">
-        <v>0.64</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="G39" s="3">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="3">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G40" s="3">
-        <v>15.04</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G41" s="3">
-        <v>42.88</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G42" s="3">
-        <v>4.6399999999999997</v>
+        <v>42.88</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,85 +1992,85 @@
         <v>156</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="3">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="G43" s="3">
-        <v>2.94</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="G44" s="3">
-        <v>7.12</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="3">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G45" s="3">
-        <v>0.8</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" s="3">
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G46" s="3">
         <v>0.8</v>
@@ -2071,254 +2078,277 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G47" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D48" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G48" s="3">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G49" s="3">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G50" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G51" s="3">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G52" s="3">
-        <v>27.04</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G53" s="3">
-        <v>4.16</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="3">
-        <v>4</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G54" s="3">
-        <v>5.04</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="3">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G55" s="3">
-        <v>10.236000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="G56" s="3">
-        <v>18</v>
+        <v>10.236000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="3">
+      <c r="B58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="3">
         <v>1.6</v>
       </c>
     </row>
